--- a/Expr1d/Expr_1.xlsx
+++ b/Expr1d/Expr_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SET" sheetId="1" state="visible" r:id="rId1"/>
@@ -481,10 +481,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -587,28 +587,20 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="K3" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="K4" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="K5" s="0" t="n">
-        <v>1000</v>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>10000,10,100,1000</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -891,7 +883,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -9409,16 +9401,16 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" t="n">
+      <c r="A602" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="B602" t="n">
+      <c r="B602" s="0" t="n">
         <v>0.1123625964745298</v>
       </c>
-      <c r="C602" t="n">
+      <c r="C602" s="0" t="n">
         <v>0.1092649252628576</v>
       </c>
-      <c r="D602" t="n">
+      <c r="D602" s="0" t="n">
         <v>0.1149564514445829</v>
       </c>
     </row>

--- a/Expr1d/Expr_1.xlsx
+++ b/Expr1d/Expr_1.xlsx
@@ -525,7 +525,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -534,8 +534,8 @@
     <col width="27" customWidth="1" style="3" min="11" max="11"/>
     <col width="10.83203125" customWidth="1" style="2" min="12" max="12"/>
     <col width="15" bestFit="1" customWidth="1" style="3" min="13" max="13"/>
-    <col width="10.83203125" customWidth="1" style="2" min="14" max="20"/>
-    <col width="10.83203125" customWidth="1" style="2" min="21" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="2" min="14" max="21"/>
+    <col width="10.83203125" customWidth="1" style="2" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -641,7 +641,7 @@
         <v>256</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>5100</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>4</v>

--- a/Expr1d/Expr_1.xlsx
+++ b/Expr1d/Expr_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr1d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427FBB05-11AB-334E-9AF1-536E8827160C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E76CDC1-C647-4048-93E2-FAF711C8F80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8080" yWindow="1920" windowWidth="28800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>Model</t>
   </si>
@@ -125,6 +125,9 @@
   <si>
     <t>Result/Expr1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fig_Record_Interve</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +182,13 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +252,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -574,7 +587,7 @@
     <col min="21" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -614,8 +627,11 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -654,6 +670,9 @@
       </c>
       <c r="M2" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="N2" s="8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
